--- a/config_hlw/game_module_config.xlsx
+++ b/config_hlw/game_module_config.xlsx
@@ -5011,10 +5011,10 @@
   <dimension ref="A1:I338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C276" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C255" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B290" sqref="B290"/>
+      <selection pane="bottomRight" activeCell="D262" sqref="D262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10428,13 +10428,13 @@
         <v>576</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" s="10" t="s">
         <v>640</v>
@@ -11845,13 +11845,13 @@
         <v>790</v>
       </c>
       <c r="E269" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F269" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G269" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H269" s="16"/>
       <c r="I269" s="18" t="s">
@@ -12522,13 +12522,13 @@
         <v>875</v>
       </c>
       <c r="E295" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F295" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G295" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" s="27" t="s">
         <v>637</v>
@@ -12886,13 +12886,13 @@
         <v>914</v>
       </c>
       <c r="E309" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F309" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G309" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" s="14" t="s">
         <v>917</v>
@@ -13412,13 +13412,13 @@
         <v>991</v>
       </c>
       <c r="E330" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F330" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G330" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" s="14" t="s">
         <v>992</v>

--- a/config_hlw/game_module_config.xlsx
+++ b/config_hlw/game_module_config.xlsx
@@ -5011,10 +5011,10 @@
   <dimension ref="A1:I338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C255" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C216" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D262" sqref="D262"/>
+      <selection pane="bottomRight" activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8295,13 +8295,13 @@
         <v>371</v>
       </c>
       <c r="E126" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" s="11" t="s">
         <v>638</v>
@@ -10845,13 +10845,13 @@
         <v>1042</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -12392,13 +12392,13 @@
         <v>858</v>
       </c>
       <c r="E290" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F290" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G290" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I290" s="27" t="s">
         <v>859</v>
@@ -13438,13 +13438,13 @@
         <v>997</v>
       </c>
       <c r="E331" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F331" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G331" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" s="14" t="s">
         <v>998</v>
@@ -13464,13 +13464,13 @@
         <v>1000</v>
       </c>
       <c r="E332" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F332" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G332" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" s="14" t="s">
         <v>1002</v>

--- a/config_hlw/game_module_config.xlsx
+++ b/config_hlw/game_module_config.xlsx
@@ -5011,10 +5011,10 @@
   <dimension ref="A1:I338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C216" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C224" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B230" sqref="B230"/>
+      <selection pane="bottomRight" activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6449,13 +6449,13 @@
         <v>161</v>
       </c>
       <c r="E55" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>638</v>
@@ -11038,13 +11038,13 @@
         <v>668</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="s">
         <v>669</v>

--- a/config_hlw/game_module_config.xlsx
+++ b/config_hlw/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="1047">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4380,6 +4380,22 @@
   </si>
   <si>
     <t>SYSBYLevelManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_045_cqg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱罐（斗地主版）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_045_CQGManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5008,13 +5024,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I338"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C224" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C318" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B238" sqref="B238"/>
+      <selection pane="bottomRight" activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10776,13 +10792,13 @@
         <v>616</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -13013,13 +13029,13 @@
         <v>939</v>
       </c>
       <c r="E314" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F314" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G314" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" s="18" t="s">
         <v>639</v>
@@ -13618,6 +13634,32 @@
       </c>
       <c r="I338" s="14" t="s">
         <v>1039</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" s="15">
+        <v>338</v>
+      </c>
+      <c r="B339" s="37" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C339" s="14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D339" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E339" s="16">
+        <v>1</v>
+      </c>
+      <c r="F339" s="16">
+        <v>1</v>
+      </c>
+      <c r="G339" s="16">
+        <v>1</v>
+      </c>
+      <c r="I339" s="14" t="s">
+        <v>1046</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/game_module_config.xlsx
+++ b/config_hlw/game_module_config.xlsx
@@ -2888,15 +2888,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_022_qflb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>全返礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_022_QFLBManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4396,6 +4388,14 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_044_qflb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_044_QFLBManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5027,10 +5027,10 @@
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C318" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C240" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A339" sqref="A339"/>
+      <selection pane="bottomRight" activeCell="D242" sqref="D242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6302,7 +6302,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>630</v>
@@ -6456,7 +6456,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>160</v>
@@ -6560,7 +6560,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>171</v>
@@ -6589,7 +6589,7 @@
         <v>173</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>174</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="31" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -10858,7 +10858,7 @@
         <v>627</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -10970,7 +10970,7 @@
         <v>658</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D235" s="8" t="s">
         <v>659</v>
@@ -11011,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -11149,25 +11149,25 @@
         <v>241</v>
       </c>
       <c r="B242" s="37" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C242" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="C242" s="8" t="s">
+      <c r="D242" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="8" t="s">
         <v>689</v>
-      </c>
-      <c r="D242" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="I242" s="8" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -11175,25 +11175,25 @@
         <v>242</v>
       </c>
       <c r="B243" s="37" t="s">
+        <v>690</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="D243" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="C243" s="8" t="s">
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="I243" s="8" t="s">
         <v>693</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-      <c r="I243" s="8" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -11201,13 +11201,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="37" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -11219,7 +11219,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -11227,13 +11227,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="37" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11245,7 +11245,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -11253,13 +11253,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="37" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11271,7 +11271,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -11279,25 +11279,25 @@
         <v>246</v>
       </c>
       <c r="B247" s="37" t="s">
+        <v>707</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="I247" s="8" t="s">
         <v>709</v>
-      </c>
-      <c r="C247" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="D247" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="E247">
-        <v>1</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247">
-        <v>1</v>
-      </c>
-      <c r="I247" s="8" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -11305,25 +11305,25 @@
         <v>247</v>
       </c>
       <c r="B248" s="37" t="s">
+        <v>711</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="D248" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="I248" s="8" t="s">
         <v>713</v>
-      </c>
-      <c r="C248" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="D248" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>1</v>
-      </c>
-      <c r="I248" s="8" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -11331,25 +11331,25 @@
         <v>248</v>
       </c>
       <c r="B249" s="37" t="s">
+        <v>714</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="D249" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="C249" s="8" t="s">
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="I249" s="8" t="s">
         <v>717</v>
-      </c>
-      <c r="D249" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
-        <v>1</v>
-      </c>
-      <c r="I249" s="8" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -11357,25 +11357,25 @@
         <v>249</v>
       </c>
       <c r="B250" s="37" t="s">
+        <v>719</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="I250" s="8" t="s">
         <v>721</v>
-      </c>
-      <c r="C250" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="D250" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-      <c r="I250" s="8" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -11383,25 +11383,25 @@
         <v>250</v>
       </c>
       <c r="B251" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="I251" s="8" t="s">
         <v>724</v>
-      </c>
-      <c r="C251" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="D251" s="8" t="s">
-        <v>725</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251">
-        <v>1</v>
-      </c>
-      <c r="I251" s="8" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -11409,13 +11409,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="37" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C252" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -11427,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="I252" s="8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -11435,13 +11435,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C253" s="22" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D253" s="21" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E253" s="22">
         <v>1</v>
@@ -11454,7 +11454,7 @@
       </c>
       <c r="H253" s="22"/>
       <c r="I253" s="21" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -11462,25 +11462,25 @@
         <v>253</v>
       </c>
       <c r="B254" s="37" t="s">
+        <v>732</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="D254" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="C254" s="8" t="s">
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="I254" s="8" t="s">
         <v>735</v>
-      </c>
-      <c r="D254" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-      <c r="I254" s="8" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -11488,25 +11488,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="37" t="s">
+        <v>736</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="D255" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="C255" s="8" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="8" t="s">
         <v>739</v>
-      </c>
-      <c r="D255" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="8" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="256" spans="1:9" s="16" customFormat="1">
@@ -11514,14 +11514,14 @@
         <v>255</v>
       </c>
       <c r="B256" s="23" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C256" s="14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D256" s="14" t="s">
         <v>1003</v>
       </c>
-      <c r="C256" s="14" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D256" s="14" t="s">
-        <v>1005</v>
-      </c>
       <c r="E256" s="16">
         <v>0</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>0</v>
       </c>
       <c r="I256" s="14" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1">
@@ -11540,13 +11540,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D257" s="14" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E257" s="16">
         <v>0</v>
@@ -11558,7 +11558,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="14" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="16" customFormat="1">
@@ -11566,14 +11566,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="C258" s="14" t="s">
+        <v>745</v>
+      </c>
+      <c r="D258" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="C258" s="14" t="s">
-        <v>747</v>
-      </c>
-      <c r="D258" s="14" t="s">
-        <v>748</v>
-      </c>
       <c r="E258" s="16">
         <v>0</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="14" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="16" customFormat="1">
@@ -11592,25 +11592,25 @@
         <v>258</v>
       </c>
       <c r="B259" s="23" t="s">
+        <v>747</v>
+      </c>
+      <c r="C259" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="D259" s="14" t="s">
         <v>749</v>
       </c>
-      <c r="C259" s="14" t="s">
+      <c r="E259" s="16">
+        <v>1</v>
+      </c>
+      <c r="F259" s="16">
+        <v>1</v>
+      </c>
+      <c r="G259" s="16">
+        <v>1</v>
+      </c>
+      <c r="I259" s="14" t="s">
         <v>750</v>
-      </c>
-      <c r="D259" s="14" t="s">
-        <v>751</v>
-      </c>
-      <c r="E259" s="16">
-        <v>1</v>
-      </c>
-      <c r="F259" s="16">
-        <v>1</v>
-      </c>
-      <c r="G259" s="16">
-        <v>1</v>
-      </c>
-      <c r="I259" s="14" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="16" customFormat="1">
@@ -11618,25 +11618,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="23" t="s">
+        <v>751</v>
+      </c>
+      <c r="C260" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="D260" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="C260" s="14" t="s">
+      <c r="E260" s="16">
+        <v>0</v>
+      </c>
+      <c r="F260" s="16">
+        <v>1</v>
+      </c>
+      <c r="G260" s="16">
+        <v>1</v>
+      </c>
+      <c r="I260" s="14" t="s">
         <v>754</v>
-      </c>
-      <c r="D260" s="14" t="s">
-        <v>755</v>
-      </c>
-      <c r="E260" s="16">
-        <v>0</v>
-      </c>
-      <c r="F260" s="16">
-        <v>1</v>
-      </c>
-      <c r="G260" s="16">
-        <v>1</v>
-      </c>
-      <c r="I260" s="14" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -11644,25 +11644,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="37" t="s">
+        <v>755</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="D261" t="s">
+        <v>756</v>
+      </c>
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="11" t="s">
         <v>757</v>
-      </c>
-      <c r="C261" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="D261" t="s">
-        <v>758</v>
-      </c>
-      <c r="E261" s="5">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="I261" s="11" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -11670,13 +11670,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="D262" s="14" t="s">
         <v>761</v>
-      </c>
-      <c r="C262" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="D262" s="14" t="s">
-        <v>763</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -11696,25 +11696,25 @@
         <v>262</v>
       </c>
       <c r="B263" s="23" t="s">
+        <v>762</v>
+      </c>
+      <c r="C263" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="D263" s="14" t="s">
         <v>764</v>
       </c>
-      <c r="C263" s="14" t="s">
+      <c r="E263" s="16">
+        <v>0</v>
+      </c>
+      <c r="F263" s="16">
+        <v>0</v>
+      </c>
+      <c r="G263" s="16">
+        <v>0</v>
+      </c>
+      <c r="I263" s="14" t="s">
         <v>765</v>
-      </c>
-      <c r="D263" s="14" t="s">
-        <v>766</v>
-      </c>
-      <c r="E263" s="16">
-        <v>0</v>
-      </c>
-      <c r="F263" s="16">
-        <v>0</v>
-      </c>
-      <c r="G263" s="16">
-        <v>0</v>
-      </c>
-      <c r="I263" s="14" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="16" customFormat="1">
@@ -11722,13 +11722,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="23" t="s">
+        <v>766</v>
+      </c>
+      <c r="C264" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="D264" s="14" t="s">
         <v>768</v>
-      </c>
-      <c r="C264" s="14" t="s">
-        <v>769</v>
-      </c>
-      <c r="D264" s="14" t="s">
-        <v>770</v>
       </c>
       <c r="E264" s="16">
         <v>0</v>
@@ -11748,25 +11748,25 @@
         <v>264</v>
       </c>
       <c r="B265" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="C265" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="D265" s="14" t="s">
         <v>771</v>
       </c>
-      <c r="C265" s="14" t="s">
+      <c r="E265" s="16">
+        <v>0</v>
+      </c>
+      <c r="F265" s="16">
+        <v>0</v>
+      </c>
+      <c r="G265" s="16">
+        <v>0</v>
+      </c>
+      <c r="I265" s="16" t="s">
         <v>772</v>
-      </c>
-      <c r="D265" s="14" t="s">
-        <v>773</v>
-      </c>
-      <c r="E265" s="16">
-        <v>0</v>
-      </c>
-      <c r="F265" s="16">
-        <v>0</v>
-      </c>
-      <c r="G265" s="16">
-        <v>0</v>
-      </c>
-      <c r="I265" s="16" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="16" customFormat="1">
@@ -11774,25 +11774,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="C266" s="14" t="s">
         <v>775</v>
       </c>
-      <c r="C266" s="14" t="s">
-        <v>777</v>
-      </c>
       <c r="D266" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="E266" s="16">
+        <v>0</v>
+      </c>
+      <c r="F266" s="16">
+        <v>0</v>
+      </c>
+      <c r="G266" s="16">
+        <v>0</v>
+      </c>
+      <c r="I266" s="18" t="s">
         <v>776</v>
-      </c>
-      <c r="E266" s="16">
-        <v>0</v>
-      </c>
-      <c r="F266" s="16">
-        <v>0</v>
-      </c>
-      <c r="G266" s="16">
-        <v>0</v>
-      </c>
-      <c r="I266" s="18" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="16" customFormat="1">
@@ -11800,13 +11800,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="C267" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C267" s="14" t="s">
-        <v>781</v>
-      </c>
       <c r="D267" s="17" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E267" s="16">
         <v>0</v>
@@ -11818,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="I267" s="18" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="16" customFormat="1">
@@ -11826,13 +11826,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E268" s="16">
         <v>1</v>
@@ -11844,7 +11844,7 @@
         <v>1</v>
       </c>
       <c r="I268" s="18" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -11852,13 +11852,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E269" s="16">
         <v>0</v>
@@ -11871,7 +11871,7 @@
       </c>
       <c r="H269" s="16"/>
       <c r="I269" s="18" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -11879,13 +11879,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="23" t="s">
+        <v>785</v>
+      </c>
+      <c r="C270" s="14" t="s">
+        <v>786</v>
+      </c>
+      <c r="D270" s="17" t="s">
         <v>787</v>
-      </c>
-      <c r="C270" s="14" t="s">
-        <v>788</v>
-      </c>
-      <c r="D270" s="17" t="s">
-        <v>789</v>
       </c>
       <c r="E270" s="16">
         <v>0</v>
@@ -11898,7 +11898,7 @@
       </c>
       <c r="H270" s="16"/>
       <c r="I270" s="18" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -11906,13 +11906,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="23" t="s">
+        <v>789</v>
+      </c>
+      <c r="C271" s="14" t="s">
         <v>791</v>
       </c>
-      <c r="C271" s="14" t="s">
-        <v>793</v>
-      </c>
       <c r="D271" s="17" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E271" s="16">
         <v>1</v>
@@ -11925,7 +11925,7 @@
       </c>
       <c r="H271" s="16"/>
       <c r="I271" s="18" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11933,13 +11933,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="C272" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="D272" s="17" t="s">
         <v>795</v>
-      </c>
-      <c r="C272" s="14" t="s">
-        <v>796</v>
-      </c>
-      <c r="D272" s="17" t="s">
-        <v>797</v>
       </c>
       <c r="E272" s="16">
         <v>1</v>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="H272" s="16"/>
       <c r="I272" s="18" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11960,13 +11960,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="C273" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="C273" s="14" t="s">
-        <v>801</v>
-      </c>
       <c r="D273" s="17" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E273" s="16">
         <v>0</v>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="H273" s="16"/>
       <c r="I273" s="14" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11987,13 +11987,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E274" s="16">
         <v>0</v>
@@ -12006,7 +12006,7 @@
       </c>
       <c r="H274" s="16"/>
       <c r="I274" s="18" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="16" customFormat="1">
@@ -12014,14 +12014,14 @@
         <v>274</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C275" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="D275" s="17" t="s">
         <v>805</v>
       </c>
-      <c r="D275" s="17" t="s">
-        <v>807</v>
-      </c>
       <c r="E275" s="16">
         <v>0</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="14" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="44" customFormat="1">
@@ -12040,10 +12040,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="45" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C276" s="43" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E276" s="44">
         <v>1</v>
@@ -12055,7 +12055,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="43" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -12063,13 +12063,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E277" s="14">
         <v>0</v>
@@ -12082,7 +12082,7 @@
       </c>
       <c r="H277" s="14"/>
       <c r="I277" s="14" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -12090,13 +12090,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -12108,7 +12108,7 @@
         <v>1</v>
       </c>
       <c r="I278" s="18" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -12116,22 +12116,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C279" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="18" t="s">
         <v>814</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="18" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -12139,13 +12139,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="18" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -12165,13 +12165,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="23" t="s">
+        <v>819</v>
+      </c>
+      <c r="C281" s="14" t="s">
         <v>821</v>
       </c>
-      <c r="C281" s="14" t="s">
-        <v>823</v>
-      </c>
       <c r="D281" s="17" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12183,7 +12183,7 @@
         <v>1</v>
       </c>
       <c r="I281" s="18" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -12191,13 +12191,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -12209,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="18" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="283" spans="1:9" s="26" customFormat="1" ht="17.25" customHeight="1">
@@ -12217,25 +12217,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="25" t="s">
+        <v>825</v>
+      </c>
+      <c r="C283" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="D283" s="25" t="s">
         <v>827</v>
       </c>
-      <c r="C283" s="24" t="s">
+      <c r="E283" s="26">
+        <v>1</v>
+      </c>
+      <c r="F283" s="26">
+        <v>1</v>
+      </c>
+      <c r="G283" s="26">
+        <v>1</v>
+      </c>
+      <c r="I283" s="27" t="s">
         <v>828</v>
-      </c>
-      <c r="D283" s="25" t="s">
-        <v>829</v>
-      </c>
-      <c r="E283" s="26">
-        <v>1</v>
-      </c>
-      <c r="F283" s="26">
-        <v>1</v>
-      </c>
-      <c r="G283" s="26">
-        <v>1</v>
-      </c>
-      <c r="I283" s="27" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="26" customFormat="1">
@@ -12243,13 +12243,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="25" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C284" s="24" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D284" s="25" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E284" s="26">
         <v>1</v>
@@ -12269,25 +12269,25 @@
         <v>284</v>
       </c>
       <c r="B285" s="23" t="s">
+        <v>836</v>
+      </c>
+      <c r="C285" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="D285" s="17" t="s">
         <v>838</v>
       </c>
-      <c r="C285" s="14" t="s">
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="I285" s="18" t="s">
         <v>839</v>
-      </c>
-      <c r="D285" s="17" t="s">
-        <v>840</v>
-      </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
-      </c>
-      <c r="G285">
-        <v>0</v>
-      </c>
-      <c r="I285" s="18" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="26" customFormat="1">
@@ -12295,13 +12295,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="39" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C286" s="24" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E286" s="26">
         <v>1</v>
@@ -12321,25 +12321,25 @@
         <v>286</v>
       </c>
       <c r="B287" s="39" t="s">
+        <v>843</v>
+      </c>
+      <c r="C287" s="24" t="s">
+        <v>844</v>
+      </c>
+      <c r="D287" s="25" t="s">
         <v>845</v>
       </c>
-      <c r="C287" s="24" t="s">
+      <c r="E287" s="26">
+        <v>1</v>
+      </c>
+      <c r="F287" s="26">
+        <v>1</v>
+      </c>
+      <c r="G287" s="26">
+        <v>1</v>
+      </c>
+      <c r="I287" s="27" t="s">
         <v>846</v>
-      </c>
-      <c r="D287" s="25" t="s">
-        <v>847</v>
-      </c>
-      <c r="E287" s="26">
-        <v>1</v>
-      </c>
-      <c r="F287" s="26">
-        <v>1</v>
-      </c>
-      <c r="G287" s="26">
-        <v>1</v>
-      </c>
-      <c r="I287" s="27" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="44" customFormat="1">
@@ -12347,14 +12347,14 @@
         <v>287</v>
       </c>
       <c r="B288" s="45" t="s">
+        <v>847</v>
+      </c>
+      <c r="C288" s="43" t="s">
+        <v>848</v>
+      </c>
+      <c r="D288" s="43" t="s">
         <v>849</v>
       </c>
-      <c r="C288" s="43" t="s">
-        <v>850</v>
-      </c>
-      <c r="D288" s="43" t="s">
-        <v>851</v>
-      </c>
       <c r="E288" s="44">
         <v>0</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>0</v>
       </c>
       <c r="I288" s="43" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="26" customFormat="1">
@@ -12373,25 +12373,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="39" t="s">
+        <v>850</v>
+      </c>
+      <c r="C289" s="24" t="s">
+        <v>851</v>
+      </c>
+      <c r="D289" s="25" t="s">
         <v>852</v>
       </c>
-      <c r="C289" s="24" t="s">
+      <c r="E289" s="26">
+        <v>0</v>
+      </c>
+      <c r="F289" s="26">
+        <v>0</v>
+      </c>
+      <c r="G289" s="26">
+        <v>0</v>
+      </c>
+      <c r="I289" s="27" t="s">
         <v>853</v>
-      </c>
-      <c r="D289" s="25" t="s">
-        <v>854</v>
-      </c>
-      <c r="E289" s="26">
-        <v>0</v>
-      </c>
-      <c r="F289" s="26">
-        <v>0</v>
-      </c>
-      <c r="G289" s="26">
-        <v>0</v>
-      </c>
-      <c r="I289" s="27" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="26" customFormat="1">
@@ -12399,25 +12399,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="25" t="s">
+        <v>854</v>
+      </c>
+      <c r="C290" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="D290" s="25" t="s">
         <v>856</v>
       </c>
-      <c r="C290" s="24" t="s">
+      <c r="E290" s="26">
+        <v>1</v>
+      </c>
+      <c r="F290" s="26">
+        <v>1</v>
+      </c>
+      <c r="G290" s="26">
+        <v>1</v>
+      </c>
+      <c r="I290" s="27" t="s">
         <v>857</v>
-      </c>
-      <c r="D290" s="25" t="s">
-        <v>858</v>
-      </c>
-      <c r="E290" s="26">
-        <v>1</v>
-      </c>
-      <c r="F290" s="26">
-        <v>1</v>
-      </c>
-      <c r="G290" s="26">
-        <v>1</v>
-      </c>
-      <c r="I290" s="27" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="26" customFormat="1">
@@ -12425,13 +12425,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="25" t="s">
+        <v>858</v>
+      </c>
+      <c r="C291" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="D291" s="25" t="s">
         <v>860</v>
-      </c>
-      <c r="C291" s="24" t="s">
-        <v>861</v>
-      </c>
-      <c r="D291" s="25" t="s">
-        <v>862</v>
       </c>
       <c r="E291" s="26">
         <v>1</v>
@@ -12451,13 +12451,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="25" t="s">
+        <v>861</v>
+      </c>
+      <c r="C292" s="24" t="s">
+        <v>866</v>
+      </c>
+      <c r="D292" s="25" t="s">
         <v>863</v>
-      </c>
-      <c r="C292" s="24" t="s">
-        <v>868</v>
-      </c>
-      <c r="D292" s="25" t="s">
-        <v>865</v>
       </c>
       <c r="E292" s="26">
         <v>1</v>
@@ -12477,14 +12477,14 @@
         <v>292</v>
       </c>
       <c r="B293" s="25" t="s">
+        <v>862</v>
+      </c>
+      <c r="C293" s="24" t="s">
+        <v>867</v>
+      </c>
+      <c r="D293" s="25" t="s">
         <v>864</v>
       </c>
-      <c r="C293" s="24" t="s">
-        <v>869</v>
-      </c>
-      <c r="D293" s="25" t="s">
-        <v>866</v>
-      </c>
       <c r="E293" s="26">
         <v>1</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>1</v>
       </c>
       <c r="I293" s="27" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="294" spans="1:9" s="26" customFormat="1">
@@ -12503,13 +12503,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="25" t="s">
+        <v>868</v>
+      </c>
+      <c r="C294" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="D294" s="25" t="s">
         <v>870</v>
-      </c>
-      <c r="C294" s="24" t="s">
-        <v>871</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>872</v>
       </c>
       <c r="E294" s="26">
         <v>1</v>
@@ -12529,13 +12529,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
+        <v>871</v>
+      </c>
+      <c r="C295" s="24" t="s">
+        <v>872</v>
+      </c>
+      <c r="D295" s="25" t="s">
         <v>873</v>
-      </c>
-      <c r="C295" s="24" t="s">
-        <v>874</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>875</v>
       </c>
       <c r="E295" s="26">
         <v>0</v>
@@ -12555,14 +12555,14 @@
         <v>295</v>
       </c>
       <c r="B296" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C296" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="D296" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="D296" s="19" t="s">
-        <v>879</v>
-      </c>
       <c r="E296">
         <v>0</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>0</v>
       </c>
       <c r="I296" s="14" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -12581,14 +12581,14 @@
         <v>296</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C297" s="14" t="s">
+        <v>876</v>
+      </c>
+      <c r="D297" s="19" t="s">
         <v>878</v>
       </c>
-      <c r="D297" s="19" t="s">
-        <v>880</v>
-      </c>
       <c r="E297">
         <v>0</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="14" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -12607,14 +12607,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="C298" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="D298" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="C298" s="14" t="s">
-        <v>883</v>
-      </c>
-      <c r="D298" s="19" t="s">
-        <v>884</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="14" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="299" spans="1:9" s="16" customFormat="1">
@@ -12633,25 +12633,25 @@
         <v>298</v>
       </c>
       <c r="B299" s="17" t="s">
+        <v>883</v>
+      </c>
+      <c r="C299" s="14" t="s">
+        <v>884</v>
+      </c>
+      <c r="D299" s="17" t="s">
         <v>885</v>
       </c>
-      <c r="C299" s="14" t="s">
+      <c r="E299" s="16">
+        <v>1</v>
+      </c>
+      <c r="F299" s="16">
+        <v>1</v>
+      </c>
+      <c r="G299" s="16">
+        <v>1</v>
+      </c>
+      <c r="I299" s="18" t="s">
         <v>886</v>
-      </c>
-      <c r="D299" s="17" t="s">
-        <v>887</v>
-      </c>
-      <c r="E299" s="16">
-        <v>1</v>
-      </c>
-      <c r="F299" s="16">
-        <v>1</v>
-      </c>
-      <c r="G299" s="16">
-        <v>1</v>
-      </c>
-      <c r="I299" s="18" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="16" customFormat="1">
@@ -12659,25 +12659,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="C300" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="D300" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="C300" s="14" t="s">
+      <c r="E300" s="16">
+        <v>0</v>
+      </c>
+      <c r="F300" s="16">
+        <v>0</v>
+      </c>
+      <c r="G300" s="16">
+        <v>0</v>
+      </c>
+      <c r="I300" s="18" t="s">
         <v>892</v>
-      </c>
-      <c r="D300" s="17" t="s">
-        <v>893</v>
-      </c>
-      <c r="E300" s="16">
-        <v>0</v>
-      </c>
-      <c r="F300" s="16">
-        <v>0</v>
-      </c>
-      <c r="G300" s="16">
-        <v>0</v>
-      </c>
-      <c r="I300" s="18" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="16" customFormat="1">
@@ -12685,13 +12685,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="17" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E301" s="16">
         <v>0</v>
@@ -12703,7 +12703,7 @@
         <v>0</v>
       </c>
       <c r="I301" s="18" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="16" customFormat="1">
@@ -12711,14 +12711,14 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C302" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="D302" s="17" t="s">
         <v>898</v>
       </c>
-      <c r="D302" s="17" t="s">
-        <v>900</v>
-      </c>
       <c r="E302" s="16">
         <v>0</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>0</v>
       </c>
       <c r="I302" s="18" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="16" customFormat="1">
@@ -12737,25 +12737,25 @@
         <v>302</v>
       </c>
       <c r="B303" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="C303" s="14" t="s">
+        <v>902</v>
+      </c>
+      <c r="D303" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="E303" s="16">
+        <v>0</v>
+      </c>
+      <c r="F303" s="16">
+        <v>0</v>
+      </c>
+      <c r="G303" s="16">
+        <v>0</v>
+      </c>
+      <c r="I303" s="18" t="s">
         <v>901</v>
-      </c>
-      <c r="C303" s="14" t="s">
-        <v>904</v>
-      </c>
-      <c r="D303" s="17" t="s">
-        <v>902</v>
-      </c>
-      <c r="E303" s="16">
-        <v>0</v>
-      </c>
-      <c r="F303" s="16">
-        <v>0</v>
-      </c>
-      <c r="G303" s="16">
-        <v>0</v>
-      </c>
-      <c r="I303" s="18" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="16" customFormat="1">
@@ -12763,25 +12763,25 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C304" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="D304" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="E304" s="16">
+        <v>0</v>
+      </c>
+      <c r="F304" s="16">
+        <v>0</v>
+      </c>
+      <c r="G304" s="16">
+        <v>0</v>
+      </c>
+      <c r="I304" s="14" t="s">
         <v>923</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>950</v>
-      </c>
-      <c r="E304" s="16">
-        <v>0</v>
-      </c>
-      <c r="F304" s="16">
-        <v>0</v>
-      </c>
-      <c r="G304" s="16">
-        <v>0</v>
-      </c>
-      <c r="I304" s="14" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="16" customFormat="1">
@@ -12789,14 +12789,14 @@
         <v>304</v>
       </c>
       <c r="B305" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="C305" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="D305" s="17" t="s">
         <v>949</v>
       </c>
-      <c r="C305" s="14" t="s">
-        <v>924</v>
-      </c>
-      <c r="D305" s="17" t="s">
-        <v>951</v>
-      </c>
       <c r="E305" s="16">
         <v>0</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>0</v>
       </c>
       <c r="I305" s="14" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="16" customFormat="1">
@@ -12815,13 +12815,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="17" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C306" s="17" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E306" s="16">
         <v>0</v>
@@ -12841,25 +12841,25 @@
         <v>306</v>
       </c>
       <c r="B307" s="23" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C307" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="D307" s="16" t="s">
+        <v>903</v>
+      </c>
+      <c r="E307" s="16">
+        <v>1</v>
+      </c>
+      <c r="F307" s="16">
+        <v>1</v>
+      </c>
+      <c r="G307" s="16">
+        <v>1</v>
+      </c>
+      <c r="I307" s="18" t="s">
         <v>906</v>
-      </c>
-      <c r="D307" s="16" t="s">
-        <v>905</v>
-      </c>
-      <c r="E307" s="16">
-        <v>1</v>
-      </c>
-      <c r="F307" s="16">
-        <v>1</v>
-      </c>
-      <c r="G307" s="16">
-        <v>1</v>
-      </c>
-      <c r="I307" s="18" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="16" customFormat="1">
@@ -12867,13 +12867,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E308" s="16">
         <v>0</v>
@@ -12885,7 +12885,7 @@
         <v>0</v>
       </c>
       <c r="I308" s="14" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="16" customFormat="1">
@@ -12893,25 +12893,25 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
+        <v>913</v>
+      </c>
+      <c r="C309" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="D309" s="17" t="s">
+        <v>912</v>
+      </c>
+      <c r="E309" s="16">
+        <v>0</v>
+      </c>
+      <c r="F309" s="16">
+        <v>0</v>
+      </c>
+      <c r="G309" s="16">
+        <v>0</v>
+      </c>
+      <c r="I309" s="14" t="s">
         <v>915</v>
-      </c>
-      <c r="C309" s="14" t="s">
-        <v>916</v>
-      </c>
-      <c r="D309" s="17" t="s">
-        <v>914</v>
-      </c>
-      <c r="E309" s="16">
-        <v>0</v>
-      </c>
-      <c r="F309" s="16">
-        <v>0</v>
-      </c>
-      <c r="G309" s="16">
-        <v>0</v>
-      </c>
-      <c r="I309" s="14" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="16" customFormat="1">
@@ -12919,13 +12919,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="C310" s="14" t="s">
         <v>918</v>
       </c>
-      <c r="C310" s="14" t="s">
-        <v>920</v>
-      </c>
       <c r="D310" s="17" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E310" s="16">
         <v>0</v>
@@ -12937,7 +12937,7 @@
         <v>0</v>
       </c>
       <c r="I310" s="14" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="16" customFormat="1">
@@ -12945,13 +12945,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E311" s="16">
         <v>0</v>
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="I311" s="14" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="16" customFormat="1">
@@ -12971,13 +12971,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="17" t="s">
+        <v>925</v>
+      </c>
+      <c r="C312" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="D312" s="17" t="s">
         <v>927</v>
-      </c>
-      <c r="C312" s="14" t="s">
-        <v>928</v>
-      </c>
-      <c r="D312" s="17" t="s">
-        <v>929</v>
       </c>
       <c r="E312" s="16">
         <v>0</v>
@@ -12994,25 +12994,25 @@
         <v>312</v>
       </c>
       <c r="B313" s="35" t="s">
+        <v>929</v>
+      </c>
+      <c r="C313" s="14" t="s">
         <v>931</v>
       </c>
-      <c r="C313" s="14" t="s">
+      <c r="D313" s="17" t="s">
+        <v>934</v>
+      </c>
+      <c r="E313" s="16">
+        <v>0</v>
+      </c>
+      <c r="F313" s="16">
+        <v>0</v>
+      </c>
+      <c r="G313" s="16">
+        <v>0</v>
+      </c>
+      <c r="I313" s="14" t="s">
         <v>933</v>
-      </c>
-      <c r="D313" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="E313" s="16">
-        <v>0</v>
-      </c>
-      <c r="F313" s="16">
-        <v>0</v>
-      </c>
-      <c r="G313" s="16">
-        <v>0</v>
-      </c>
-      <c r="I313" s="14" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -13020,13 +13020,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="35" t="s">
+        <v>930</v>
+      </c>
+      <c r="C314" s="14" t="s">
         <v>932</v>
       </c>
-      <c r="C314" s="14" t="s">
-        <v>934</v>
-      </c>
       <c r="D314" s="34" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E314" s="16">
         <v>0</v>
@@ -13046,13 +13046,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E315" s="16">
         <v>0</v>
@@ -13064,7 +13064,7 @@
         <v>0</v>
       </c>
       <c r="I315" s="14" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -13072,13 +13072,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="35" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D316" s="34" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E316" s="16">
         <v>0</v>
@@ -13098,10 +13098,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="42" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C317" s="43" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E317" s="44">
         <v>0</v>
@@ -13113,7 +13113,7 @@
         <v>0</v>
       </c>
       <c r="I317" s="43" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="44" customFormat="1">
@@ -13121,10 +13121,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C318" s="43" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E318" s="44">
         <v>0</v>
@@ -13136,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="I318" s="43" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="44" customFormat="1">
@@ -13144,10 +13144,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C319" s="43" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E319" s="44">
         <v>0</v>
@@ -13159,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="I319" s="43" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="44" customFormat="1">
@@ -13167,10 +13167,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="46" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C320" s="43" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E320" s="44">
         <v>0</v>
@@ -13182,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="I320" s="47" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="44" customFormat="1">
@@ -13190,10 +13190,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="48" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C321" s="43" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E321" s="44">
         <v>0</v>
@@ -13213,13 +13213,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="42" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C322" s="43" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D322" s="42" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E322" s="44">
         <v>0</v>
@@ -13231,7 +13231,7 @@
         <v>0</v>
       </c>
       <c r="I322" s="43" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="16" customFormat="1">
@@ -13239,10 +13239,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="49" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D323" s="17"/>
       <c r="E323" s="16">
@@ -13255,7 +13255,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="14" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="16" customFormat="1">
@@ -13263,14 +13263,14 @@
         <v>323</v>
       </c>
       <c r="B324" s="17" t="s">
+        <v>955</v>
+      </c>
+      <c r="C324" s="14" t="s">
+        <v>956</v>
+      </c>
+      <c r="D324" s="17" t="s">
         <v>957</v>
       </c>
-      <c r="C324" s="14" t="s">
-        <v>958</v>
-      </c>
-      <c r="D324" s="17" t="s">
-        <v>959</v>
-      </c>
       <c r="E324" s="16">
         <v>0</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="I324" s="14" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="16" customFormat="1">
@@ -13289,10 +13289,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E325" s="16">
         <v>0</v>
@@ -13304,7 +13304,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="14" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="16" customFormat="1">
@@ -13312,14 +13312,14 @@
         <v>325</v>
       </c>
       <c r="B326" s="17" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C326" s="17" t="s">
+        <v>962</v>
+      </c>
+      <c r="D326" s="17" t="s">
         <v>964</v>
       </c>
-      <c r="D326" s="17" t="s">
-        <v>966</v>
-      </c>
       <c r="E326" s="16">
         <v>0</v>
       </c>
@@ -13330,10 +13330,10 @@
         <v>0</v>
       </c>
       <c r="H326" s="16" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I326" s="14" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="16" customFormat="1">
@@ -13341,13 +13341,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="C327" s="18" t="s">
         <v>981</v>
       </c>
-      <c r="C327" s="18" t="s">
-        <v>983</v>
-      </c>
       <c r="D327" s="17" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E327" s="16">
         <v>0</v>
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="I327" s="14" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="16" customFormat="1">
@@ -13367,25 +13367,25 @@
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
+        <v>976</v>
+      </c>
+      <c r="C328" s="18" t="s">
+        <v>975</v>
+      </c>
+      <c r="D328" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="E328" s="16">
+        <v>0</v>
+      </c>
+      <c r="F328" s="16">
+        <v>0</v>
+      </c>
+      <c r="G328" s="16">
+        <v>0</v>
+      </c>
+      <c r="I328" s="14" t="s">
         <v>978</v>
-      </c>
-      <c r="C328" s="18" t="s">
-        <v>977</v>
-      </c>
-      <c r="D328" s="17" t="s">
-        <v>979</v>
-      </c>
-      <c r="E328" s="16">
-        <v>0</v>
-      </c>
-      <c r="F328" s="16">
-        <v>0</v>
-      </c>
-      <c r="G328" s="16">
-        <v>0</v>
-      </c>
-      <c r="I328" s="14" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="16" customFormat="1">
@@ -13393,25 +13393,25 @@
         <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C329" s="14" t="s">
+        <v>982</v>
+      </c>
+      <c r="D329" s="14" t="s">
+        <v>983</v>
+      </c>
+      <c r="E329" s="16">
+        <v>0</v>
+      </c>
+      <c r="F329" s="16">
+        <v>1</v>
+      </c>
+      <c r="G329" s="16">
+        <v>1</v>
+      </c>
+      <c r="I329" s="14" t="s">
         <v>984</v>
-      </c>
-      <c r="D329" s="14" t="s">
-        <v>985</v>
-      </c>
-      <c r="E329" s="16">
-        <v>0</v>
-      </c>
-      <c r="F329" s="16">
-        <v>1</v>
-      </c>
-      <c r="G329" s="16">
-        <v>1</v>
-      </c>
-      <c r="I329" s="14" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="16" customFormat="1">
@@ -13419,25 +13419,25 @@
         <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
+        <v>987</v>
+      </c>
+      <c r="C330" s="18" t="s">
+        <v>988</v>
+      </c>
+      <c r="D330" s="16" t="s">
         <v>989</v>
       </c>
-      <c r="C330" s="18" t="s">
+      <c r="E330" s="16">
+        <v>0</v>
+      </c>
+      <c r="F330" s="16">
+        <v>0</v>
+      </c>
+      <c r="G330" s="16">
+        <v>0</v>
+      </c>
+      <c r="I330" s="14" t="s">
         <v>990</v>
-      </c>
-      <c r="D330" s="16" t="s">
-        <v>991</v>
-      </c>
-      <c r="E330" s="16">
-        <v>0</v>
-      </c>
-      <c r="F330" s="16">
-        <v>0</v>
-      </c>
-      <c r="G330" s="16">
-        <v>0</v>
-      </c>
-      <c r="I330" s="14" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -13445,25 +13445,25 @@
         <v>330</v>
       </c>
       <c r="B331" s="37" t="s">
+        <v>993</v>
+      </c>
+      <c r="C331" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="D331" t="s">
         <v>995</v>
       </c>
-      <c r="C331" s="18" t="s">
+      <c r="E331" s="16">
+        <v>0</v>
+      </c>
+      <c r="F331" s="16">
+        <v>0</v>
+      </c>
+      <c r="G331" s="16">
+        <v>0</v>
+      </c>
+      <c r="I331" s="14" t="s">
         <v>996</v>
-      </c>
-      <c r="D331" t="s">
-        <v>997</v>
-      </c>
-      <c r="E331" s="16">
-        <v>0</v>
-      </c>
-      <c r="F331" s="16">
-        <v>0</v>
-      </c>
-      <c r="G331" s="16">
-        <v>0</v>
-      </c>
-      <c r="I331" s="14" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -13471,25 +13471,25 @@
         <v>331</v>
       </c>
       <c r="B332" s="37" t="s">
+        <v>997</v>
+      </c>
+      <c r="C332" s="18" t="s">
         <v>999</v>
       </c>
-      <c r="C332" s="18" t="s">
-        <v>1001</v>
-      </c>
       <c r="D332" t="s">
+        <v>998</v>
+      </c>
+      <c r="E332" s="16">
+        <v>0</v>
+      </c>
+      <c r="F332" s="16">
+        <v>0</v>
+      </c>
+      <c r="G332" s="16">
+        <v>0</v>
+      </c>
+      <c r="I332" s="14" t="s">
         <v>1000</v>
-      </c>
-      <c r="E332" s="16">
-        <v>0</v>
-      </c>
-      <c r="F332" s="16">
-        <v>0</v>
-      </c>
-      <c r="G332" s="16">
-        <v>0</v>
-      </c>
-      <c r="I332" s="14" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -13497,25 +13497,25 @@
         <v>332</v>
       </c>
       <c r="B333" s="37" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C333" s="18" t="s">
         <v>1015</v>
       </c>
-      <c r="C333" s="18" t="s">
-        <v>1017</v>
-      </c>
       <c r="D333" s="8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E333" s="16">
+        <v>0</v>
+      </c>
+      <c r="F333" s="16">
+        <v>0</v>
+      </c>
+      <c r="G333" s="16">
+        <v>0</v>
+      </c>
+      <c r="I333" s="14" t="s">
         <v>1016</v>
-      </c>
-      <c r="E333" s="16">
-        <v>0</v>
-      </c>
-      <c r="F333" s="16">
-        <v>0</v>
-      </c>
-      <c r="G333" s="16">
-        <v>0</v>
-      </c>
-      <c r="I333" s="14" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13523,25 +13523,25 @@
         <v>333</v>
       </c>
       <c r="B334" s="37" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C334" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D334" t="s">
         <v>1019</v>
       </c>
-      <c r="C334" s="18" t="s">
+      <c r="E334" s="16">
+        <v>0</v>
+      </c>
+      <c r="F334" s="16">
+        <v>0</v>
+      </c>
+      <c r="G334" s="16">
+        <v>0</v>
+      </c>
+      <c r="I334" s="14" t="s">
         <v>1020</v>
-      </c>
-      <c r="D334" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E334" s="16">
-        <v>0</v>
-      </c>
-      <c r="F334" s="16">
-        <v>0</v>
-      </c>
-      <c r="G334" s="16">
-        <v>0</v>
-      </c>
-      <c r="I334" s="14" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13549,10 +13549,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="37" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E335" s="16">
         <v>0</v>
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="I335" s="14" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13572,13 +13572,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="37" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C336" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D336" s="8" t="s">
         <v>1031</v>
-      </c>
-      <c r="C336" s="14" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D336" s="8" t="s">
-        <v>1033</v>
       </c>
       <c r="E336" s="16">
         <v>0</v>
@@ -13595,13 +13595,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="37" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C337" s="14" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D337" s="8" t="s">
         <v>1034</v>
-      </c>
-      <c r="C337" s="14" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D337" s="8" t="s">
-        <v>1036</v>
       </c>
       <c r="E337" s="16">
         <v>0</v>
@@ -13618,22 +13618,22 @@
         <v>337</v>
       </c>
       <c r="B338" s="37" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C338" s="18" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E338" s="16">
+        <v>0</v>
+      </c>
+      <c r="F338" s="16">
+        <v>0</v>
+      </c>
+      <c r="G338" s="16">
+        <v>0</v>
+      </c>
+      <c r="I338" s="14" t="s">
         <v>1037</v>
-      </c>
-      <c r="C338" s="18" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E338" s="16">
-        <v>0</v>
-      </c>
-      <c r="F338" s="16">
-        <v>0</v>
-      </c>
-      <c r="G338" s="16">
-        <v>0</v>
-      </c>
-      <c r="I338" s="14" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13641,25 +13641,25 @@
         <v>338</v>
       </c>
       <c r="B339" s="37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C339" s="14" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D339" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="C339" s="14" t="s">
+      <c r="E339" s="16">
+        <v>1</v>
+      </c>
+      <c r="F339" s="16">
+        <v>1</v>
+      </c>
+      <c r="G339" s="16">
+        <v>1</v>
+      </c>
+      <c r="I339" s="14" t="s">
         <v>1044</v>
-      </c>
-      <c r="D339" s="8" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E339" s="16">
-        <v>1</v>
-      </c>
-      <c r="F339" s="16">
-        <v>1</v>
-      </c>
-      <c r="G339" s="16">
-        <v>1</v>
-      </c>
-      <c r="I339" s="14" t="s">
-        <v>1046</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/game_module_config.xlsx
+++ b/config_hlw/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_hlw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_hlw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5027,10 +5027,10 @@
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C240" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C280" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D242" sqref="D242"/>
+      <selection pane="bottomRight" activeCell="D297" sqref="D297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11969,13 +11969,13 @@
         <v>798</v>
       </c>
       <c r="E273" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F273" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H273" s="16"/>
       <c r="I273" s="14" t="s">
@@ -12538,13 +12538,13 @@
         <v>873</v>
       </c>
       <c r="E295" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F295" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G295" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I295" s="27" t="s">
         <v>637</v>

--- a/config_hlw/game_module_config.xlsx
+++ b/config_hlw/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_hlw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_hlw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5030,7 +5030,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C280" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D297" sqref="D297"/>
+      <selection pane="bottomRight" activeCell="E283" sqref="E283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12226,7 +12226,7 @@
         <v>827</v>
       </c>
       <c r="E283" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F283" s="26">
         <v>1</v>

--- a/config_hlw/game_module_config.xlsx
+++ b/config_hlw/game_module_config.xlsx
@@ -5027,10 +5027,10 @@
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C280" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E283" sqref="E283"/>
+      <selection pane="bottomRight" activeCell="G238" sqref="G238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11002,13 +11002,13 @@
         <v>661</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236" s="8" t="s">
         <v>966</v>
@@ -11054,13 +11054,13 @@
         <v>668</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238" t="s">
         <v>669</v>

--- a/config_hlw/game_module_config.xlsx
+++ b/config_hlw/game_module_config.xlsx
@@ -5027,10 +5027,10 @@
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C222" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G238" sqref="G238"/>
+      <selection pane="bottomRight" activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10976,7 +10976,7 @@
         <v>659</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
         <v>1</v>

--- a/config_hlw/game_module_config.xlsx
+++ b/config_hlw/game_module_config.xlsx
@@ -5027,10 +5027,10 @@
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C221" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C234" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C238" sqref="C238"/>
+      <selection pane="bottomRight" activeCell="C246" sqref="C245:C246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11314,7 +11314,7 @@
         <v>712</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -13173,13 +13173,13 @@
         <v>1007</v>
       </c>
       <c r="E320" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F320" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G320" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I320" s="47" t="s">
         <v>974</v>

--- a/config_hlw/game_module_config.xlsx
+++ b/config_hlw/game_module_config.xlsx
@@ -5027,10 +5027,10 @@
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C234" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C246" sqref="C245:C246"/>
+      <selection pane="bottomRight" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8311,13 +8311,13 @@
         <v>371</v>
       </c>
       <c r="E126" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" s="11" t="s">
         <v>638</v>

--- a/config_hlw/game_module_config.xlsx
+++ b/config_hlw/game_module_config.xlsx
@@ -16,7 +16,7 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$338</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$339</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -5027,10 +5027,10 @@
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A126" sqref="A126"/>
+      <selection pane="bottomRight" activeCell="E325" sqref="E325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7014,10 +7014,10 @@
         <v>0</v>
       </c>
       <c r="F76" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="31" t="s">
         <v>951</v>
@@ -7427,13 +7427,13 @@
         <v>269</v>
       </c>
       <c r="E92" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" s="11" t="s">
         <v>639</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="11" t="s">
         <v>638</v>
@@ -8129,13 +8129,13 @@
         <v>350</v>
       </c>
       <c r="E119" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" s="40" t="s">
         <v>640</v>
@@ -10979,10 +10979,10 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="s">
         <v>657</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" s="8" t="s">
         <v>713</v>
@@ -11392,13 +11392,13 @@
         <v>723</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" s="8" t="s">
         <v>724</v>
@@ -11421,10 +11421,10 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" s="8" t="s">
         <v>725</v>
@@ -11471,13 +11471,13 @@
         <v>734</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" s="8" t="s">
         <v>735</v>
@@ -11552,10 +11552,10 @@
         <v>0</v>
       </c>
       <c r="F257" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G257" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" s="14" t="s">
         <v>740</v>
@@ -11578,10 +11578,10 @@
         <v>0</v>
       </c>
       <c r="F258" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G258" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" s="14" t="s">
         <v>740</v>
@@ -11915,13 +11915,13 @@
         <v>790</v>
       </c>
       <c r="E271" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F271" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G271" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271" s="16"/>
       <c r="I271" s="18" t="s">
@@ -12046,13 +12046,13 @@
         <v>807</v>
       </c>
       <c r="E276" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F276" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G276" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" s="43" t="s">
         <v>1005</v>
@@ -12102,10 +12102,10 @@
         <v>0</v>
       </c>
       <c r="F278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" s="18" t="s">
         <v>811</v>
@@ -12177,10 +12177,10 @@
         <v>0</v>
       </c>
       <c r="F281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" s="18" t="s">
         <v>814</v>
@@ -12850,13 +12850,13 @@
         <v>903</v>
       </c>
       <c r="E307" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F307" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G307" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" s="18" t="s">
         <v>906</v>
@@ -13663,7 +13663,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H338"/>
+  <autoFilter ref="A1:H339"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/config_hlw/game_module_config.xlsx
+++ b/config_hlw/game_module_config.xlsx
@@ -5027,10 +5027,10 @@
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C224" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E325" sqref="E325"/>
+      <selection pane="bottomRight" activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10792,13 +10792,13 @@
         <v>616</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:9">

--- a/config_hlw/game_module_config.xlsx
+++ b/config_hlw/game_module_config.xlsx
@@ -5027,10 +5027,10 @@
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C224" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B227" sqref="B227"/>
+      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6465,13 +6465,13 @@
         <v>161</v>
       </c>
       <c r="E55" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>638</v>

--- a/config_hlw/game_module_config.xlsx
+++ b/config_hlw/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1051">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4396,6 +4396,22 @@
   </si>
   <si>
     <t>Act_044_QFLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_042_xshb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时红包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_042_XSHBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4593,7 +4609,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4745,6 +4761,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5024,13 +5044,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I339"/>
+  <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomRight" activeCell="E272" sqref="E272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11942,13 +11962,13 @@
         <v>795</v>
       </c>
       <c r="E272" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F272" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G272" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H272" s="16"/>
       <c r="I272" s="18" t="s">
@@ -13660,6 +13680,32 @@
       </c>
       <c r="I339" s="14" t="s">
         <v>1044</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" s="16" customFormat="1">
+      <c r="A340" s="5">
+        <v>339</v>
+      </c>
+      <c r="B340" s="14" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C340" s="51" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D340" s="14" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E340" s="16">
+        <v>1</v>
+      </c>
+      <c r="F340" s="16">
+        <v>1</v>
+      </c>
+      <c r="G340" s="16">
+        <v>1</v>
+      </c>
+      <c r="I340" s="52" t="s">
+        <v>1050</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/game_module_config.xlsx
+++ b/config_hlw/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="1057">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4412,6 +4412,30 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_task_management</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_task_management_type_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务资源</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_TASK_MANAGEMENT_TYPE_1_Manager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTASKMANAGEMENTManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5044,13 +5068,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I340"/>
+  <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C258" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C324" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E272" sqref="E272"/>
+      <selection pane="bottomRight" activeCell="F341" sqref="F341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13706,6 +13730,58 @@
       </c>
       <c r="I340" s="52" t="s">
         <v>1050</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" s="15">
+        <v>340</v>
+      </c>
+      <c r="B341" s="37" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C341" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D341" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E341" s="16">
+        <v>1</v>
+      </c>
+      <c r="F341" s="16">
+        <v>1</v>
+      </c>
+      <c r="G341" s="16">
+        <v>1</v>
+      </c>
+      <c r="I341" s="14" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" s="15">
+        <v>341</v>
+      </c>
+      <c r="B342" s="37" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C342" s="14" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D342" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+      <c r="F342">
+        <v>1</v>
+      </c>
+      <c r="G342">
+        <v>1</v>
+      </c>
+      <c r="I342" s="14" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>
